--- a/data/income_statement/2digits/total/03_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/03_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>03-Fishing and aquaculture</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>03-Fishing and aquaculture</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>455743.23306</v>
+        <v>456585.7234600001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>596193.80422</v>
+        <v>601609.26398</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>785935.76162</v>
+        <v>790123.98143</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>854651.48526</v>
+        <v>861865.4634700001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>996692.55111</v>
+        <v>1003025.3338</v>
       </c>
       <c r="H5" s="47" t="n">
         <v>1205503.9511</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1495787.53898</v>
+        <v>1498661.24469</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1436953.33736</v>
+        <v>1506259.68386</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1671493.02351</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2235097.25468</v>
+        <v>2236031.07482</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2951849.06213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2970359.39998</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3660326.983</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>363185.39195</v>
+        <v>364027.88235</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>504549.07718</v>
+        <v>509722.08094</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>668914.31757</v>
+        <v>673102.53738</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>743291.52547</v>
+        <v>750505.50368</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>871046.71633</v>
+        <v>877379.49902</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>1048863.40313</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1281064.13204</v>
+        <v>1283321.94761</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1184345.84236</v>
+        <v>1213344.02622</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1362679.66697</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1764985.19992</v>
+        <v>1765918.90006</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2361473.60448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2316375.41128</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2827505.368</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>62372.33504</v>
+        <v>62372.33503999999</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>59387.73925</v>
@@ -1040,7 +956,7 @@
         <v>69690.56547</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>84112.18268000001</v>
+        <v>84112.18268</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>122957.86429</v>
@@ -1049,28 +965,33 @@
         <v>184029.41163</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>226687.66229</v>
+        <v>266799.86694</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>283850.52791</v>
+        <v>283850.5279099999</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>440538.22212</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>555329.6791700001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>618866.7658200001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>778783.307</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>30185.50607</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>32256.98779</v>
+        <v>32499.44379</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>40933.66712999999</v>
@@ -1079,43 +1000,48 @@
         <v>41669.39431999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>41533.65209999999</v>
+        <v>41533.6521</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>33682.68368000001</v>
+        <v>33682.68368</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>30693.99531</v>
+        <v>31309.88545</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>25919.83271</v>
+        <v>26115.7907</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>24962.82863</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>29573.83264</v>
+        <v>29573.95264</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>35045.77848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>35117.22287999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>54038.308</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>5248.45313</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5786.70714</v>
+        <v>5796.00295</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>4848.02543</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>7422.69881</v>
+        <v>7422.698810000001</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>4349.05684</v>
@@ -1127,7 +1053,7 @@
         <v>7031.7655</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>12754.55881</v>
+        <v>12767.69752</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>33859.79349</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>30427.17384</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>41285.708</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2443.79837</v>
@@ -1160,13 +1091,13 @@
         <v>3109.7028</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>6142.763130000001</v>
+        <v>6142.76313</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>5180.185439999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4462.08532</v>
+        <v>4472.33051</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>29744.40567</v>
@@ -1177,23 +1108,28 @@
       <c r="M10" s="48" t="n">
         <v>23713.89492</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>26399.41</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1488.08585</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>3784.458520000001</v>
+        <v>3793.75433</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>2235.13361</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>486.1422699999999</v>
+        <v>486.14227</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>374.60545</v>
@@ -1205,7 +1141,7 @@
         <v>1148.86884</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2607.67234</v>
+        <v>2610.56586</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1570.66957</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>1442.1765</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>8194.471</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1316.56891</v>
@@ -1235,7 +1176,7 @@
         <v>1210.77896</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>864.74859</v>
+        <v>864.7485899999999</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>1108.032</v>
@@ -1244,7 +1185,7 @@
         <v>702.71122</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5684.80115</v>
+        <v>5684.801149999999</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>2544.71825</v>
@@ -1253,139 +1194,159 @@
         <v>3800.69495</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>5271.10242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5271.102419999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6691.827</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>450494.77993</v>
+        <v>451337.27033</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>590407.09708</v>
+        <v>595813.2610299999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>781087.7361900001</v>
+        <v>785275.956</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>847228.7864499999</v>
+        <v>854442.7646599999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>992343.49427</v>
+        <v>998676.2769599999</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>1197100.64184</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1488755.77348</v>
+        <v>1491629.47919</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1424198.77855</v>
+        <v>1493491.98634</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1637633.23002</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2204675.35072</v>
+        <v>2205609.17086</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2921421.88829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2939932.22614</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3619041.275</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>377955.72531</v>
+        <v>379118.53636</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>503156.80693</v>
+        <v>508364.66814</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>644904.16941</v>
+        <v>650229.8840500001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>714859.77975</v>
+        <v>722016.9614800001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>861986.52305</v>
+        <v>868386.5830499999</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>1026446.80166</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1276559.3613</v>
+        <v>1278718.97784</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1208937.31343</v>
+        <v>1271468.23945</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1372544.66941</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1828871.48501</v>
+        <v>1829798.6498</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2494775.77856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2507242.80792</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3023588.782</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>226479.80337</v>
+        <v>227642.61442</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>308315.55958</v>
+        <v>311321.66058</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>369807.67001</v>
+        <v>375133.38465</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>426020.70449</v>
+        <v>433177.88622</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>511383.85194</v>
+        <v>517783.91194</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>645026.68347</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>821461.1944800001</v>
+        <v>822477.0758700001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>679072.80357</v>
+        <v>702455.6646200001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>842900.59055</v>
+        <v>842900.5905500001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1142326.03208</v>
+        <v>1143238.82373</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1454132.45491</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1458429.61764</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1926653.592</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>138069.75199</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>179248.94759</v>
+        <v>181450.7078</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>253154.4082100001</v>
+        <v>253154.40821</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>267104.83584</v>
@@ -1397,25 +1358,30 @@
         <v>352362.00541</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>427323.7290699999</v>
+        <v>428467.46422</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>490425.11856</v>
+        <v>529325.86574</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>479333.57918</v>
+        <v>479333.5791799999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>614179.92008</v>
+        <v>614182.6470799999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>956154.9635299999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>957004.6551100001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>986975.0919999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>10957.19127</v>
@@ -1439,22 +1405,27 @@
         <v>21400.8317</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>29535.59013</v>
+        <v>29537.60771</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>38973.62201000001</v>
+        <v>38973.62201</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>64366.91952</v>
+        <v>64378.56565999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>79621.57504</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>81631.23836</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>80140.31299999999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>2448.97868</v>
@@ -1478,106 +1449,121 @@
         <v>6373.60605</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>9903.801170000001</v>
+        <v>10149.10138</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>11336.87767</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>7998.61333</v>
+        <v>7998.613330000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4866.78508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>10177.29681</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>29819.785</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>72539.05462</v>
+        <v>72218.73397</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>87250.29015</v>
+        <v>87448.59289000001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>136183.56678</v>
+        <v>135046.07195</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>132369.0067</v>
+        <v>132425.80318</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>130356.97122</v>
+        <v>130289.69391</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>170653.84018</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>212196.41218</v>
+        <v>212910.50135</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>215261.46512</v>
+        <v>222023.74689</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>265088.5606099999</v>
+        <v>265088.56061</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>375803.86571</v>
+        <v>375810.5210600001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>426646.10973</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>432689.4182200001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>595452.493</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>44473.06195</v>
+        <v>44546.36998999999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>56640.57881</v>
+        <v>57000.67603</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>68421.04633</v>
+        <v>68549.14031</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>80857.29509</v>
+        <v>81315.53715</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>85344.33371000001</v>
+        <v>85825.44779000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>93565.81872</v>
+        <v>93572.05430000002</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>104757.87576</v>
+        <v>104976.61666</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>133845.39704</v>
+        <v>136710.8137</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>161413.99588</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>207529.26145</v>
+        <v>207613.68657</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>262797.2755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>266143.09345</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>333479.48</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>35.04458</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>31.55834</v>
+        <v>77.57733999999999</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>139.12598</v>
@@ -1589,7 +1575,7 @@
         <v>340.07975</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>541.5606599999999</v>
+        <v>541.56066</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>445.05923</v>
@@ -1601,31 +1587,36 @@
         <v>868.02711</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>812.4328</v>
+        <v>812.4327999999999</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>284.04434</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>743.689</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>11777.8713</v>
+        <v>11795.4713</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>13940.77683</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>18054.69921</v>
+        <v>18182.79319</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>23808.96482</v>
+        <v>24003.62028</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>26410.46918</v>
+        <v>26629.20855</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>32495.70983</v>
@@ -1634,100 +1625,115 @@
         <v>40659.64539</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>60873.90832</v>
+        <v>62867.82018000001</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>62493.68208</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>85470.41365999999</v>
+        <v>85544.5949</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>102188.92432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>102354.61595</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>127284.205</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>32660.14607</v>
+        <v>32715.85411</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>42668.24364</v>
+        <v>42982.32186</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>50227.22114</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>56814.66568000001</v>
+        <v>57078.25228</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>58593.78478</v>
+        <v>58856.15949000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>60528.54823000001</v>
+        <v>60534.78381</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>63653.17114</v>
+        <v>63871.91204000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>72003.73907</v>
+        <v>72875.24387000001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>98052.28668999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>121246.41499</v>
+        <v>121256.65887</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>160324.30684</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>163504.43316</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>205451.586</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>28065.99267</v>
+        <v>27672.36398</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>30609.71133999999</v>
+        <v>30447.91686</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>67762.52045</v>
+        <v>66496.93164</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>51511.71161</v>
+        <v>51110.26603</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>45012.63751000001</v>
+        <v>44464.24612</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>77088.02145999999</v>
+        <v>77081.78588000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>107438.53642</v>
+        <v>107933.88469</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>81416.06807999998</v>
+        <v>85312.93319</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>103674.56473</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>168274.60426</v>
+        <v>168196.83449</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>163848.83423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>166546.32477</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>261973.013</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>14195.05323</v>
@@ -1742,16 +1748,16 @@
         <v>42252.41613</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>40127.89235</v>
+        <v>40128.95295000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>42082.08724999999</v>
+        <v>42082.08725</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>92873.01419</v>
+        <v>92955.14371</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>62520.80749000001</v>
+        <v>62886.66461</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>111781.56958</v>
@@ -1760,13 +1766,18 @@
         <v>322533.22649</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>176074.01987</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>175668.1949</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>296140.276</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3.89206</v>
@@ -1796,16 +1807,21 @@
         <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>5895.301600000001</v>
+        <v>5895.3016</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>3332.915</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>3217.01</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>10.30429</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>40.909</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>878.7989000000001</v>
+        <v>878.7988999999999</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>1284.99435</v>
@@ -1859,7 +1880,7 @@
         <v>5515.17754</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6549.211510000001</v>
+        <v>6549.21151</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>2219.41067</v>
@@ -1868,7 +1889,7 @@
         <v>5121.661859999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4631.347</v>
+        <v>4631.346999999999</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>4535.626179999999</v>
@@ -1877,13 +1898,18 @@
         <v>10941.38008</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6677.125230000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6677.12523</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3093.882</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>182.01557</v>
@@ -1913,16 +1939,21 @@
         <v>76.39170999999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>471.3271800000001</v>
+        <v>471.32718</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>43.91292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>46.81676</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>82.18600000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>29.81199</v>
@@ -1952,16 +1983,21 @@
         <v>2306.76461</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4692.139899999999</v>
+        <v>4692.1399</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>5142.91542</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>4313.922</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>4.92293</v>
@@ -1976,7 +2012,7 @@
         <v>62.7397</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>573.7890800000001</v>
+        <v>573.78908</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>0.04313</v>
@@ -1991,16 +2027,21 @@
         <v>137.90691</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>314.9564800000001</v>
+        <v>314.95648</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>1972.94616</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2011.254</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>9310.531560000001</v>
@@ -2015,31 +2056,36 @@
         <v>26429.6462</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>23130.84659</v>
+        <v>23131.90719</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>28550.19168</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>65076.78411</v>
+        <v>65158.91363</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>40355.65456</v>
+        <v>40721.51168</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>73819.79578999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>289482.63514</v>
+        <v>289482.6351399999</v>
       </c>
       <c r="M32" s="48" t="n">
         <v>133856.40068</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>240665.91</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>68.64567</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.493</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>0.1067</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>3774.77593</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3268.19</v>
+        <v>3268.190000000001</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>4184.62465</v>
@@ -2132,13 +2188,13 @@
         <v>8945.67239</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>7216.35841</v>
+        <v>7216.358410000001</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>8351.64789</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8922.553759999999</v>
+        <v>8922.553760000003</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>8583.02434</v>
@@ -2150,25 +2206,30 @@
         <v>10714.66611</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>24979.05209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>24570.32328</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>42699.41</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>20169.50577</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>14650.60367</v>
+        <v>14651.60367</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>37670.25015</v>
+        <v>37670.25015000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>30920.3746</v>
+        <v>30951.30767</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>75808.1627</v>
@@ -2177,10 +2238,10 @@
         <v>64515.0497</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>148150.59842</v>
+        <v>148232.72834</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>55013.24438</v>
+        <v>55854.54478</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>104120.28118</v>
@@ -2189,13 +2250,18 @@
         <v>294058.79142</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>168512.67339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>168570.58901</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>282834.168</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>62.23208</v>
@@ -2219,49 +2285,54 @@
         <v>266.96054</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>293.30359</v>
+        <v>293.84854</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>293.7094</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>649.7437599999998</v>
+        <v>649.7437600000001</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>574.6325700000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>418.049</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>4688.23191</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1506.70652</v>
+        <v>1507.70652</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>1556.63648</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6232.63583</v>
+        <v>6232.635830000001</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>537.6726799999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4413.81718</v>
+        <v>4413.817180000001</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>3216.43614</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2020.96098</v>
+        <v>2462.42851</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>6399.631060000001</v>
+        <v>6399.63106</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>10782.21773</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>6917.23625</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>216.395</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>44.19386</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>2226.39748</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>104.073</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>10786.0039</v>
@@ -2324,7 +2405,7 @@
         <v>32718.10692</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>20444.69577</v>
+        <v>20475.62884</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>66016.71646</v>
@@ -2333,25 +2414,30 @@
         <v>53921.0886</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>124535.7821</v>
+        <v>124617.91202</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>48369.21198000001</v>
+        <v>48768.4999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>83587.84874</v>
+        <v>83587.84874000002</v>
       </c>
       <c r="L40" s="48" t="n">
         <v>273230.53727</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>146794.57772</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>146852.49334</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>258225.144</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>68.646</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>6.6</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>4582.24402</v>
+        <v>4582.244019999999</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>1976.75054</v>
@@ -2464,74 +2560,84 @@
       <c r="M43" s="48" t="n">
         <v>11999.82937</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>23801.861</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>16919.70178</v>
+        <v>16945.23805</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>12692.43722</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>18101.48122</v>
+        <v>18106.62097</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>25204.11228</v>
+        <v>25321.66373</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>30925.71524</v>
+        <v>30972.26261</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>44898.89912</v>
+        <v>44898.89911999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>49201.3027</v>
+        <v>49201.3322</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>34705.41716</v>
+        <v>34934.8792</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>60171.73384</v>
+        <v>60171.73383999999</v>
       </c>
       <c r="L44" s="47" t="n">
         <v>118453.87912</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>75977.868</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>75982.36942</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>93463.45299999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>16092.82375</v>
+        <v>16118.36002</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>12255.7669</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>17065.42889</v>
+        <v>17070.56864</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>24516.68794</v>
+        <v>24634.23939</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>30121.46765</v>
+        <v>30168.01502</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>44206.74564</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>47122.714</v>
+        <v>47122.7435</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>32423.53828</v>
+        <v>32653.00032</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>52687.43192</v>
@@ -2540,19 +2646,24 @@
         <v>86405.19425999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>65799.3193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>65803.82071999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>88056.746</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>826.8780300000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>436.67032</v>
+        <v>436.6703200000001</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>1036.05233</v>
@@ -2573,7 +2684,7 @@
         <v>2281.87888</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>7484.301920000001</v>
+        <v>7484.30192</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>32048.68486</v>
@@ -2581,74 +2692,84 @@
       <c r="M46" s="48" t="n">
         <v>10178.5487</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>5406.707</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5171.83835</v>
+        <v>4752.67339</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>20353.80402</v>
+        <v>20191.00954</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>37273.10254</v>
+        <v>36002.37398</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>37639.64086</v>
+        <v>37089.71075999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-21593.34808</v>
+        <v>-22187.22624</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>9756.159889999999</v>
+        <v>9749.92431</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2959.649489999998</v>
+        <v>3454.967859999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>54218.21403</v>
+        <v>57410.17382</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>51164.11929</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>78295.16021</v>
+        <v>78217.39044</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>95432.31271000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>97661.56124</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>181815.668</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>8858.590699999999</v>
+        <v>8864.426890000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>5776.9698</v>
+        <v>5958.46119</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>9789.840389999999</v>
+        <v>10952.02166</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>10359.70354</v>
+        <v>11040.14354</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>8091.1394</v>
+        <v>8700.77846</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>16820.31583</v>
+        <v>16820.32605</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>10482.02021</v>
+        <v>10519.19016</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>11454.19831</v>
+        <v>11575.43777</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>112714.1869</v>
@@ -2657,13 +2778,18 @@
         <v>24484.13064</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>34787.48112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>35132.35125</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>46348.982</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>501.76518</v>
@@ -2681,7 +2807,7 @@
         <v>90.12852000000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3436.04653</v>
+        <v>3436.05675</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>112.96395</v>
@@ -2693,40 +2819,45 @@
         <v>19.6512</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>54.62114999999999</v>
+        <v>54.62115</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>711.69624</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>56.376</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>8356.82552</v>
+        <v>8362.66171</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>5774.75097</v>
+        <v>5956.242359999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>9162.264239999999</v>
+        <v>10324.44551</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>7278.04124</v>
+        <v>7958.48124</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8001.010880000001</v>
+        <v>8610.649940000001</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>13384.2693</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>10369.05626</v>
+        <v>10406.22621</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>11337.3899</v>
+        <v>11458.62936</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>112694.5357</v>
@@ -2735,22 +2866,27 @@
         <v>24429.50949</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>34075.78487999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>34420.65500999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>46292.606</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>6563.12124</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2672.92282</v>
+        <v>2678.51021</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>22209.87852</v>
+        <v>22209.87851999999</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>4345.69715</v>
@@ -2762,25 +2898,30 @@
         <v>12250.3121</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>15554.85972</v>
+        <v>15564.0508</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>17051.19937</v>
+        <v>17074.3241</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>17291.48395</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>25343.61583</v>
+        <v>25351.46183</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>19224.7294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>19643.43845</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>20619.962</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1822.27511</v>
@@ -2795,13 +2936,13 @@
         <v>160.71394</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>82.47264000000001</v>
+        <v>82.47264</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>148.25296</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>803.19762</v>
+        <v>803.1976200000001</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>98.2381</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>487.56199</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>213.804</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>285.98324</v>
@@ -2843,7 +2989,7 @@
         <v>1745.15376</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>381.5019399999999</v>
+        <v>381.50194</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1788.78896</v>
@@ -2854,17 +3000,22 @@
       <c r="M53" s="48" t="n">
         <v>2026.79333</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>3066.387</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4454.86289</v>
+        <v>4454.862889999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1801.35399</v>
+        <v>1806.94138</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>20491.26744</v>
@@ -2879,70 +3030,80 @@
         <v>11064.46039</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>13006.50834</v>
+        <v>13015.69942</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>16571.45933</v>
+        <v>16594.58406</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>15433.96642</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>24995.53971</v>
+        <v>25003.38571</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>16710.37408</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>17129.08313</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>17339.771</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>7467.307809999999</v>
+        <v>7053.97904</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>23457.851</v>
+        <v>23470.96052</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>24853.06441</v>
+        <v>24744.51712</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>43653.64725</v>
+        <v>43784.15715</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-20097.88029</v>
+        <v>-20082.11939</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>14326.16362</v>
+        <v>14319.93826</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-2113.190019999998</v>
+        <v>-1589.892779999997</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>48621.21297</v>
+        <v>51911.28749</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>146586.82224</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>77435.67502</v>
+        <v>77350.05925000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>110995.06443</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>113150.47404</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>207544.688</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2705.05433</v>
+        <v>2705.054329999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4453.83696</v>
+        <v>4493.742740000001</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>9236.227419999999</v>
@@ -2951,16 +3112,16 @@
         <v>9152.871030000002</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>5436.552189999999</v>
+        <v>5436.55219</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>7480.89933</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>10134.93096</v>
+        <v>10239.01566</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>11711.89323</v>
+        <v>12162.64861</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>15985.51418</v>
@@ -2969,49 +3130,57 @@
         <v>19143.106</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>23448.47255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>23560.80789</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>53836.005</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4762.253479999999</v>
+        <v>4348.92471</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>19004.01404</v>
+        <v>18977.21778</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>15616.83699</v>
+        <v>15508.2897</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>34500.77622</v>
+        <v>34631.28612</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-25534.43248</v>
+        <v>-25518.67158</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>6845.264290000002</v>
+        <v>6839.038929999997</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-12248.12098</v>
+        <v>-11828.90844</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>36909.31974</v>
+        <v>39748.63888000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>130601.30806</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>58292.56902</v>
+        <v>58206.95325000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>87546.59187999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>89589.66615</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>153708.683</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>508</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>532</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>